--- a/Careers -  Getting Started - Kunlin Hsieh.xlsx
+++ b/Careers -  Getting Started - Kunlin Hsieh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t xml:space="preserve">Event </t>
   </si>
@@ -77,9 +77,6 @@
     <t>3 job descriptions</t>
   </si>
   <si>
-    <t>Intro to Python</t>
-  </si>
-  <si>
     <t>Website</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>Additional Comments</t>
   </si>
   <si>
-    <t>CENTRL east</t>
-  </si>
-  <si>
     <t>rincial Data Scientist</t>
   </si>
   <si>
@@ -200,6 +194,15 @@
   </si>
   <si>
     <t>Podcasts</t>
+  </si>
+  <si>
+    <t>Atlanta Big Data User Group</t>
+  </si>
+  <si>
+    <t>Applied Data Science of Atlanta</t>
+  </si>
+  <si>
+    <t>Atlanta Data Science Workshops</t>
   </si>
 </sst>
 </file>
@@ -809,17 +812,17 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -838,7 +841,7 @@
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -858,22 +861,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -897,13 +900,13 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -912,13 +915,13 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -927,13 +930,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1150,7 +1153,9 @@
   </sheetPr>
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1201,23 +1206,31 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7">
-        <v>43360</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0.27083333333333331</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="13"/>
+      <c r="D3" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
       <c r="B4" s="14"/>
+      <c r="D4" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AA4"/>
@@ -1258,28 +1271,28 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
@@ -1305,10 +1318,10 @@
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1336,13 +1349,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="32.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1370,28 +1383,28 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="20"/>
     </row>
@@ -1440,51 +1453,51 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
